--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Отдел кадров</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Должность</t>
+  </si>
+  <si>
+    <t>Долбилова Ирина Петровна</t>
+  </si>
+  <si>
+    <t>Начальник отдела</t>
   </si>
 </sst>
 </file>
@@ -370,30 +376,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D6"/>
+  <dimension ref="C5:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Отдел кадров</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>Начальник отдела</t>
+  </si>
+  <si>
+    <t>Заметститель начальника</t>
+  </si>
+  <si>
+    <t>Специалист по кадрам</t>
+  </si>
+  <si>
+    <t>Инспектор по кадрам</t>
   </si>
 </sst>
 </file>
@@ -376,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D7"/>
+  <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +419,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C5:D5"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +420,9 @@
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
